--- a/Tender/userkeyword_list.xlsx
+++ b/Tender/userkeyword_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaod\Documents\UiPath\Tender\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaod\Desktop\RPA Project\UiPathPractice\Tender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F76208-5413-4BF7-AD50-5F12C353908A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D00732-6BCE-4F1D-A656-C93EF4129DBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12864" yWindow="5076" windowWidth="15972" windowHeight="9000" xr2:uid="{1DCCC9A5-F24B-40A8-93EF-2F6E411EEF5F}"/>
+    <workbookView xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="9420" xr2:uid="{1DCCC9A5-F24B-40A8-93EF-2F6E411EEF5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Keyword" sheetId="1" r:id="rId1"/>
@@ -25,27 +25,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>Food and Beverage</t>
-  </si>
-  <si>
-    <t>national parks</t>
-  </si>
-  <si>
-    <t>library</t>
+    <t>Facilities Maintenance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -72,8 +70,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,38 +387,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07629E1A-C093-4A2F-A949-DF137855855C}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>